--- a/Client/Resources/Data/Animation/Player/Player.xlsx
+++ b/Client/Resources/Data/Animation/Player/Player.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GA_6th_2Q_Project\GA_6th_2Q_Project\Client\Resources\Data\Animation\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ArcheTypeZero\GA_6th_2Q_Project\Client\Resources\Data\Animation\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF65890-C079-4997-A4BC-CF674F869121}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E4055A-806B-42A0-B2D3-9397DE583A8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Animation</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +44,6 @@
   </si>
   <si>
     <t>Player_Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.08f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +372,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -405,8 +401,8 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
+      <c r="C3">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
